--- a/Mesh Independence Study.xlsx
+++ b/Mesh Independence Study.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\College\Heat Transfer\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A664361B-EE8B-46E4-8F18-7AAE4817DCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384B5364-F8AD-49DE-93B3-5F7280953B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{74E889B2-14D2-497A-90EF-AA1AE2BE5438}"/>
   </bookViews>
@@ -35,12 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Surface Average Temperature (Ts, avg) (°C)</t>
-  </si>
-  <si>
-    <t>Overall Convection Coefficient (h, avg) (W·m⁻²·K⁻¹)</t>
   </si>
   <si>
     <t>Friction Force (Fd) (N)</t>
@@ -61,8 +58,23 @@
     <t>Fine</t>
   </si>
   <si>
+    <t>Coarse → Fine deviation</t>
+  </si>
+  <si>
+    <t>Medium → Fine deviation:</t>
+  </si>
+  <si>
+    <t>Overall Convection Coefficient (h, avg) (W/m²·K)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Average Temperature </t>
+  </si>
+  <si>
+    <t>(Ts, avg) (°C)</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">(24.159 − 24.131) / 24.131 = </t>
+      <t xml:space="preserve">(25.143 − 24.876) / 24.876 = </t>
     </r>
     <r>
       <rPr>
@@ -73,21 +85,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0.12%</t>
+      <t>1.07%</t>
     </r>
   </si>
   <si>
-    <t>Coarse → Fine deviation</t>
-  </si>
-  <si>
-    <t>Medium → Fine deviation:</t>
-  </si>
-  <si>
-    <t>(24.078 − 24.131) / 24.131 = 0.22%</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">(48.176 − 49.531) / 49.531 = </t>
+      <t xml:space="preserve">(42.011 − 43.035) / 43.035 = </t>
     </r>
     <r>
       <rPr>
@@ -98,12 +101,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2.73%</t>
+      <t>2.38%</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">(49.513 − 49.531) / 49.531 = </t>
+      <t xml:space="preserve">(14.448 − 14.867) / 14.867 = </t>
     </r>
     <r>
       <rPr>
@@ -114,12 +117,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0.036%</t>
+      <t>2.82%</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">(17.525 − 17.849) / 17.849 = </t>
+      <t xml:space="preserve">(0.0023884 − 0.0024575) / 0.0024575 = </t>
     </r>
     <r>
       <rPr>
@@ -130,12 +133,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1.81%</t>
+      <t>2.81%</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">(17.990 − 17.849)/ 17.849 = </t>
+      <t xml:space="preserve">(25.49 − 24.876) / 24.876 = </t>
     </r>
     <r>
       <rPr>
@@ -146,12 +149,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0.79%</t>
+      <t>2.47%</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">(0.0028971 − 0.002956)/ 0.002956 = </t>
+      <t xml:space="preserve">(39.765 − 43.035) / 43.035 = </t>
     </r>
     <r>
       <rPr>
@@ -162,12 +165,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1.99%</t>
+      <t>7.60%</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">(0.0029738 − 0.002956)/ 0.002956 = </t>
+      <t xml:space="preserve">(13.502 − 14.867) / 14.867 = </t>
     </r>
     <r>
       <rPr>
@@ -178,18 +181,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0.60%</t>
+      <t>9.18%</t>
     </r>
   </si>
   <si>
-    <t>Overall Convection Coefficient (h, avg) (W/m²·K)</t>
+    <r>
+      <t xml:space="preserve">(0.002232 − 0.0024575) / 0.0024575 = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9.18%</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,13 +236,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -242,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -255,50 +264,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -317,34 +283,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,9 +463,66 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Mesh Independence Study'!$A$2:$A$4</c:f>
+              <c:f>'Mesh Independence Study'!$A$3:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -495,18 +539,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Mesh Independence Study'!$B$2:$B$4</c:f>
+              <c:f>'Mesh Independence Study'!$B$3:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>24.158999999999999</c:v>
+                  <c:v>25.143000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.077999999999999</c:v>
+                  <c:v>25.49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.131</c:v>
+                  <c:v>24.876000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -553,9 +597,66 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Mesh Independence Study'!$A$2:$A$4</c:f>
+              <c:f>'Mesh Independence Study'!$A$3:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -572,18 +673,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Mesh Independence Study'!$C$2:$C$4</c:f>
+              <c:f>'Mesh Independence Study'!$C$3:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>48.176000000000002</c:v>
+                  <c:v>42.011000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.512999999999998</c:v>
+                  <c:v>39.765000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.530999999999999</c:v>
+                  <c:v>43.034999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -595,8 +696,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -718,39 +820,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="752448623"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -1404,13 +1479,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1735,84 +1810,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572639E6-2753-483E-BC70-15E690BEE50E}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="23.7109375" style="3"/>
+    <col min="1" max="1" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="23.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0755AC2A-0A32-4B8A-B73D-F8526BCA08D6}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1824,75 +1914,89 @@
     <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
+        <v>25.143000000000001</v>
+      </c>
+      <c r="C3" s="5">
+        <v>42.011000000000003</v>
+      </c>
+      <c r="D3" s="5">
+        <v>14.448</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2.3884000000000002E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
-        <v>24.158999999999999</v>
-      </c>
-      <c r="C2" s="2">
-        <v>48.176000000000002</v>
-      </c>
-      <c r="D2" s="2">
-        <v>17.524999999999999</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2.8971000000000001E-3</v>
+      <c r="B4" s="5">
+        <v>25.49</v>
+      </c>
+      <c r="C4" s="5">
+        <v>39.765000000000001</v>
+      </c>
+      <c r="D4" s="5">
+        <v>13.502000000000001</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2.232E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="C3" s="2">
-        <v>49.512999999999998</v>
-      </c>
-      <c r="D3" s="2">
-        <v>17.989999999999998</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2.9738E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>24.131</v>
-      </c>
-      <c r="C4" s="2">
-        <v>49.530999999999999</v>
-      </c>
-      <c r="D4" s="2">
-        <v>17.849</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2.9559999999999999E-3</v>
+      <c r="B5" s="5">
+        <v>24.876000000000001</v>
+      </c>
+      <c r="C5" s="5">
+        <v>43.034999999999997</v>
+      </c>
+      <c r="D5" s="5">
+        <v>14.867000000000001</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.4575E-3</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
